--- a/data/trans_bre/P32A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; -1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 4,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,14; 246,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; -0,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 1,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,36%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; -0,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 27,84</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,94%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 2,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; -0,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 1,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,69; 5,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,25; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; 2,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; -1,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,44%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 4,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 5,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,18; 3,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 236,14</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,39%</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; -0,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 0,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 4,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 91,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,37; 49,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,65; 282,55</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>281,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,55%</t>
         </is>
       </c>
     </row>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 2,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; -0,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 3,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 1,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,38%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,06%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; -0,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; -0,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 0,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,11; 2,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,71; -28,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,82; 27,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,38; 75,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,17; -1,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 0,0</t>
+          <t>-4,51; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,5; -5,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,0</t>
+          <t>-2,43; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-71,36%</t>
+          <t>-70,86%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -0,27</t>
+          <t>-6,17; -0,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 27,84</t>
+          <t>-100,0; 30,64</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-61,92%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>-1,43%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -0,22</t>
+          <t>-3,55; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,97</t>
+          <t>-1,99; 2,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-92,69; 5,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,25; —</t>
+          <t>-86,98; —</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,44%</t>
+          <t>-23,76%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,17</t>
+          <t>-4,01; 3,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 236,14</t>
+          <t>-100,0; 240,99</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>-9,58%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,19</t>
+          <t>-3,4; 3,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-76,65; 282,55</t>
+          <t>-89,57; 189,15</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-30,55%</t>
+          <t>-27,63%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,81</t>
+          <t>-1,69; 1,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>-22,18%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,03</t>
+          <t>-1,42; 0,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-55,38; 75,61</t>
+          <t>-66,76; 50,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -1,26</t>
+          <t>-6,78; -1,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,17; -1,29</t>
+          <t>-15,15; -1,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 4,69</t>
+          <t>-6,54; 4,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,0</t>
+          <t>-4,89; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-91,5; -5,42</t>
+          <t>-92,29; 3,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-89,14; 246,68</t>
+          <t>-89,91; 188,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,37; -0,9</t>
+          <t>-4,97; -0,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,35</t>
+          <t>-3,12; 1,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,2</t>
+          <t>-3,67; 2,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,0</t>
+          <t>-2,86; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,0</t>
+          <t>-2,75; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,0</t>
+          <t>-2,77; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,0</t>
+          <t>-1,72; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; -0,22</t>
+          <t>-5,6; 0,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 30,64</t>
+          <t>-100,0; 56,43</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,29</t>
+          <t>-1,66; 1,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,0</t>
+          <t>-3,12; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,05</t>
+          <t>-2,68; 1,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-86,98; —</t>
+          <t>-100,0; 351,57</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,0</t>
+          <t>-3,81; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,43</t>
+          <t>-6,81; 2,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -1,01</t>
+          <t>-9,36; -1,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,0</t>
+          <t>-4,43; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,66</t>
+          <t>-1,14; 4,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 5,78</t>
+          <t>-1,96; 4,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,18</t>
+          <t>-3,77; 3,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 240,99</t>
+          <t>-100,0; 296,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,0</t>
+          <t>-2,24; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; -0,09</t>
+          <t>-4,18; -0,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,62</t>
+          <t>-4,59; 0,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,19</t>
+          <t>-3,83; 3,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 91,19</t>
+          <t>-100,0; 82,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-89,37; 49,84</t>
+          <t>-88,92; 46,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-89,57; 189,15</t>
+          <t>-90,79; 201,73</t>
         </is>
       </c>
     </row>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,39</t>
+          <t>-0,68; 2,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -0,53</t>
+          <t>-3,48; -0,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,41</t>
+          <t>-0,07; 3,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,98</t>
+          <t>-1,68; 2,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,32; -0,13</t>
+          <t>-1,33; -0,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,74</t>
+          <t>-2,57; -0,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,42</t>
+          <t>-1,55; 0,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,75</t>
+          <t>-1,36; 0,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-92,11; 2,66</t>
+          <t>-92,29; -2,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-86,71; -28,74</t>
+          <t>-86,49; -29,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 27,84</t>
+          <t>-65,7; 24,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 50,51</t>
+          <t>-67,47; 53,64</t>
         </is>
       </c>
     </row>
